--- a/LiveWatch/input_csvs/template/xangle_template_unlockschedule.xlsx
+++ b/LiveWatch/input_csvs/template/xangle_template_unlockschedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewook.lee/github/X-tools/LiveWatch/input_csvs/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewooklee/github/X-tools/LiveWatch/input_csvs/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA0A2C-32D5-4843-8362-A29930175183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE2D77A-B364-6048-B19C-04DA8F8DE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30600" yWindow="-480" windowWidth="29040" windowHeight="15720" xr2:uid="{D774C16B-156A-426C-B083-1E59875B536B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D774C16B-156A-426C-B083-1E59875B536B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A48455-4661-46EA-A947-AA5492862DB4}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,436 +485,166 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2000</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3000</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4000</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5000</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6000</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7000</v>
-      </c>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8000</v>
-      </c>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9000</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10000</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11000</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12000</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13000</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14000</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B18" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B28" s="3">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B30" s="3">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B32" s="3">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B33" s="3">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B34" s="3">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B35" s="3">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B36" s="3">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B37" s="3">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B38" s="3">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B39" s="3">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B40" s="3">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B41" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B42" s="3">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B43" s="3">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B44" s="3">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B45" s="3">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B47" s="3">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B48" s="3">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B49" s="3">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>44563</v>
-      </c>
-      <c r="B50" s="3">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B51" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B52" s="3">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>44744</v>
-      </c>
-      <c r="B53" s="3">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>44745</v>
-      </c>
-      <c r="B54" s="3">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B55" s="3">
-        <v>54000</v>
-      </c>
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/LiveWatch/input_csvs/template/xangle_template_unlockschedule.xlsx
+++ b/LiveWatch/input_csvs/template/xangle_template_unlockschedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewooklee/github/X-tools/LiveWatch/input_csvs/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewook.lee/github/X-tools/LiveWatch/input_csvs/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE2D77A-B364-6048-B19C-04DA8F8DE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060EF12-9255-8648-A1BB-0363665FC96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D774C16B-156A-426C-B083-1E59875B536B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="18000" xr2:uid="{D774C16B-156A-426C-B083-1E59875B536B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A48455-4661-46EA-A947-AA5492862DB4}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
